--- a/biology/Botanique/Alaria_esculenta/Alaria_esculenta.xlsx
+++ b/biology/Botanique/Alaria_esculenta/Alaria_esculenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alaria esculenta, appelée aussi Alaire comestible est une espèce d'algues brunes comestible de la famille des Alariaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alaria esculenta vient du latin alarius, « aile », et esculenta, « comestible ».
 </t>
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le thalle brun de cette espèce est bien différencié en stipe étroit, court et flexible fixé au rocher par des crampons minces, et en fronde entière, en forme de lanière. Le stipe cylindrique s'aplatit en pénétrant dans la lame qui peut atteindre 2 m de long et 10-15 cm de large. Cette lame forme un thalle peu ondulé qui est parcouru sur toute sa longueur par une forte nervure médiane et est souvent déchiquetée latéralement vers le sommet, où il ne reste que la nervure. Elle est quelquefois confondue avec Undaria pinnatifida (wakamé), et a comme nom vernaculaires wakamé de l'Atlantique, wakamé breton, kelp ailé, alarié succulente, alarié comestible[3], algue ailée et au Japon , Chigaiso[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thalle brun de cette espèce est bien différencié en stipe étroit, court et flexible fixé au rocher par des crampons minces, et en fronde entière, en forme de lanière. Le stipe cylindrique s'aplatit en pénétrant dans la lame qui peut atteindre 2 m de long et 10-15 cm de large. Cette lame forme un thalle peu ondulé qui est parcouru sur toute sa longueur par une forte nervure médiane et est souvent déchiquetée latéralement vers le sommet, où il ne reste que la nervure. Elle est quelquefois confondue avec Undaria pinnatifida (wakamé), et a comme nom vernaculaires wakamé de l'Atlantique, wakamé breton, kelp ailé, alarié succulente, alarié comestible, algue ailée et au Japon , Chigaiso.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alaria esculenta est une espèce nordique bisannuelle, infralittorale, de mode battu, qui se rencontre sur les rivages du Groenland, de l'Islande, de la Norvège, des Pays-Bas, de la France, du Labrador, du Massachusetts et de l'Alaska[5]. 
-Souvent présente en populations denses, elle peut former au-dessus de la limite supérieure de Laminaria digitata, une ceinture étroite caractéristique des basses mers battues par les vagues, ou n'être présente que par quelques individus isolés dans des stations plus calmes[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alaria esculenta est une espèce nordique bisannuelle, infralittorale, de mode battu, qui se rencontre sur les rivages du Groenland, de l'Islande, de la Norvège, des Pays-Bas, de la France, du Labrador, du Massachusetts et de l'Alaska. 
+Souvent présente en populations denses, elle peut former au-dessus de la limite supérieure de Laminaria digitata, une ceinture étroite caractéristique des basses mers battues par les vagues, ou n'être présente que par quelques individus isolés dans des stations plus calmes.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (1 février 2019)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (1 février 2019) :
 variété Alaria esculenta var. latifolia Postels &amp; Ruprecht
 forme Alaria esculenta f. angustifolia Postels &amp; Ruprecht, 1840
 forme Alaria esculenta f. musifolia (de la Pylaie) Kjellman
@@ -639,9 +659,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Asie, elle était en 1985 consommée à titre alimentaire uniquement par les Coréens[7]. Elle est aussi exploitée pour son algine[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Asie, elle était en 1985 consommée à titre alimentaire uniquement par les Coréens. Elle est aussi exploitée pour son algine.
 </t>
         </is>
       </c>
